--- a/assets/A1.xlsx
+++ b/assets/A1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HindiVocaProject\hindivocabulary\hindivocabulary\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57840925-9EFF-4321-A4D6-ABC8D1E7AF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFE572F-BD07-4E33-983A-40D1C5177184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3715" uniqueCount="3036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3795" uniqueCount="3071">
   <si>
     <t xml:space="preserve">अंगूर </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -21173,6 +21173,146 @@
   </si>
   <si>
     <t xml:space="preserve">라훌은 친구보다 영리하다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정해진 날짜에 프로그램이 시작된다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오늘 음악을 들려주세요. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">호수에 자그마한 호텔 한 개가 있다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나의 누이가 겨울 캠프에 갈 것이다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인도회사가 경제발전을 위해 계획을 세운다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내 친구는 헬스하는 취미가 있다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 이야기는 일부 사실이다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(당신은) 저녁에 차를 마십니까? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 가게는 물건이 비싸다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여자아이가 두 발로 스케이트를 몬다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소년이 일곱시 45분에 일어난다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나는 아침에 방을 떠난다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">집 옆에 공원이 하나 있다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가방을 책상 위에 놓으세요. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">교사가 학생을 꾸짖는다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제부터 복통이 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나에게 지금 백 루피가 필요하다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어제 슈리나가르에서 새벽에 짙은 안개가 있었다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우리는 매일 아침 복숭아 한 개를 먹어야 한다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공원에 많은 사람들이 체조한다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그 가게는 화요일에 닫는다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8월 15일은 결혼기념일이다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(당신의) 귀에 주의를 기울이세요. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나는 눈물이 나온다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">너는 인도에 가야한다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그는 가끔 힌디어를 공부한다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">할아버지는 아침에 요가연습을 하신다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정원에 갈색 풀이 있다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그는 기차 엔지니어이다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그는 왼 발으로 쓴다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">따밀어는 인도의 언어이다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 알레스카에 가고 싶다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">당신도 나를 도와 줬었다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나는 쇠를 든다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">라훌은 친구보다 멍청하다. </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -21705,13 +21845,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E743"/>
+  <dimension ref="A1:G743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A664" workbookViewId="0">
-      <selection activeCell="B674" sqref="A1:E743"/>
+    <sheetView tabSelected="1" topLeftCell="A721" workbookViewId="0">
+      <selection activeCell="G742" sqref="G742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="47.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
@@ -32865,7 +33009,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:7">
       <c r="A657" s="1" t="s">
         <v>2695</v>
       </c>
@@ -32882,7 +33026,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:7">
       <c r="A658" s="4" t="s">
         <v>2699</v>
       </c>
@@ -32899,7 +33043,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:7">
       <c r="A659" s="3" t="s">
         <v>2703</v>
       </c>
@@ -32916,7 +33060,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:7">
       <c r="A660" s="4" t="s">
         <v>2707</v>
       </c>
@@ -32933,7 +33077,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:7">
       <c r="A661" s="4" t="s">
         <v>2711</v>
       </c>
@@ -32950,7 +33094,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:7">
       <c r="A662" s="9" t="s">
         <v>2715</v>
       </c>
@@ -32967,7 +33111,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:7">
       <c r="A663" s="3" t="s">
         <v>2720</v>
       </c>
@@ -32984,7 +33128,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:7">
       <c r="A664" s="4" t="s">
         <v>2724</v>
       </c>
@@ -33000,8 +33144,14 @@
       <c r="E664" s="4" t="s">
         <v>2615</v>
       </c>
-    </row>
-    <row r="665" spans="1:5">
+      <c r="F664" s="4" t="s">
+        <v>3036</v>
+      </c>
+      <c r="G664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7">
       <c r="A665" s="4" t="s">
         <v>2726</v>
       </c>
@@ -33017,8 +33167,14 @@
       <c r="E665" s="4" t="s">
         <v>2728</v>
       </c>
-    </row>
-    <row r="666" spans="1:5">
+      <c r="F665" s="4" t="s">
+        <v>3037</v>
+      </c>
+      <c r="G665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7">
       <c r="A666" s="4" t="s">
         <v>2729</v>
       </c>
@@ -33034,8 +33190,14 @@
       <c r="E666" s="4" t="s">
         <v>2732</v>
       </c>
-    </row>
-    <row r="667" spans="1:5">
+      <c r="F666" s="4" t="s">
+        <v>2732</v>
+      </c>
+      <c r="G666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7">
       <c r="A667" s="4" t="s">
         <v>2733</v>
       </c>
@@ -33051,8 +33213,14 @@
       <c r="E667" s="4" t="s">
         <v>2736</v>
       </c>
-    </row>
-    <row r="668" spans="1:5">
+      <c r="F667" s="4" t="s">
+        <v>2736</v>
+      </c>
+      <c r="G667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7">
       <c r="A668" s="4" t="s">
         <v>2737</v>
       </c>
@@ -33068,8 +33236,14 @@
       <c r="E668" s="4" t="s">
         <v>2740</v>
       </c>
-    </row>
-    <row r="669" spans="1:5">
+      <c r="F668" s="4" t="s">
+        <v>3038</v>
+      </c>
+      <c r="G668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7">
       <c r="A669" s="4" t="s">
         <v>2741</v>
       </c>
@@ -33085,8 +33259,14 @@
       <c r="E669" s="4" t="s">
         <v>2744</v>
       </c>
-    </row>
-    <row r="670" spans="1:5">
+      <c r="F669" s="4" t="s">
+        <v>3039</v>
+      </c>
+      <c r="G669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7">
       <c r="A670" s="1" t="s">
         <v>2745</v>
       </c>
@@ -33102,8 +33282,14 @@
       <c r="E670" s="4" t="s">
         <v>2748</v>
       </c>
-    </row>
-    <row r="671" spans="1:5">
+      <c r="F670" s="4" t="s">
+        <v>2748</v>
+      </c>
+      <c r="G670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7">
       <c r="A671" s="4" t="s">
         <v>2749</v>
       </c>
@@ -33119,8 +33305,14 @@
       <c r="E671" s="4" t="s">
         <v>2752</v>
       </c>
-    </row>
-    <row r="672" spans="1:5">
+      <c r="F671" s="4" t="s">
+        <v>3040</v>
+      </c>
+      <c r="G671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7">
       <c r="A672" s="3" t="s">
         <v>2753</v>
       </c>
@@ -33136,8 +33328,14 @@
       <c r="E672" s="4" t="s">
         <v>2756</v>
       </c>
-    </row>
-    <row r="673" spans="1:5">
+      <c r="F672" s="4" t="s">
+        <v>2756</v>
+      </c>
+      <c r="G672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7">
       <c r="A673" s="3" t="s">
         <v>2757</v>
       </c>
@@ -33153,8 +33351,14 @@
       <c r="E673" s="4" t="s">
         <v>2760</v>
       </c>
-    </row>
-    <row r="674" spans="1:5">
+      <c r="F673" s="4" t="s">
+        <v>2760</v>
+      </c>
+      <c r="G673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7">
       <c r="A674" s="4" t="s">
         <v>2761</v>
       </c>
@@ -33170,8 +33374,14 @@
       <c r="E674" s="4" t="s">
         <v>2764</v>
       </c>
-    </row>
-    <row r="675" spans="1:5">
+      <c r="F674" s="4" t="s">
+        <v>3041</v>
+      </c>
+      <c r="G674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7">
       <c r="A675" s="4" t="s">
         <v>2765</v>
       </c>
@@ -33187,8 +33397,14 @@
       <c r="E675" s="4" t="s">
         <v>2768</v>
       </c>
-    </row>
-    <row r="676" spans="1:5">
+      <c r="F675" s="4" t="s">
+        <v>3042</v>
+      </c>
+      <c r="G675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7">
       <c r="A676" s="4" t="s">
         <v>2769</v>
       </c>
@@ -33204,8 +33420,14 @@
       <c r="E676" s="4" t="s">
         <v>2772</v>
       </c>
-    </row>
-    <row r="677" spans="1:5">
+      <c r="F676" s="4" t="s">
+        <v>2772</v>
+      </c>
+      <c r="G676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7">
       <c r="A677" s="3" t="s">
         <v>2773</v>
       </c>
@@ -33221,8 +33443,14 @@
       <c r="E677" s="4" t="s">
         <v>2776</v>
       </c>
-    </row>
-    <row r="678" spans="1:5">
+      <c r="F677" s="4" t="s">
+        <v>2776</v>
+      </c>
+      <c r="G677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7">
       <c r="A678" s="4" t="s">
         <v>2777</v>
       </c>
@@ -33238,8 +33466,14 @@
       <c r="E678" s="4" t="s">
         <v>2780</v>
       </c>
-    </row>
-    <row r="679" spans="1:5">
+      <c r="F678" s="4" t="s">
+        <v>3043</v>
+      </c>
+      <c r="G678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7">
       <c r="A679" s="4" t="s">
         <v>2781</v>
       </c>
@@ -33255,8 +33489,14 @@
       <c r="E679" s="4" t="s">
         <v>2784</v>
       </c>
-    </row>
-    <row r="680" spans="1:5">
+      <c r="F679" s="4" t="s">
+        <v>3044</v>
+      </c>
+      <c r="G679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7">
       <c r="A680" s="4" t="s">
         <v>2785</v>
       </c>
@@ -33272,8 +33512,14 @@
       <c r="E680" s="4" t="s">
         <v>2788</v>
       </c>
-    </row>
-    <row r="681" spans="1:5">
+      <c r="F680" s="4" t="s">
+        <v>2788</v>
+      </c>
+      <c r="G680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7">
       <c r="A681" s="4" t="s">
         <v>2789</v>
       </c>
@@ -33289,8 +33535,14 @@
       <c r="E681" s="4" t="s">
         <v>2792</v>
       </c>
-    </row>
-    <row r="682" spans="1:5">
+      <c r="F681" s="4" t="s">
+        <v>2792</v>
+      </c>
+      <c r="G681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7">
       <c r="A682" s="4" t="s">
         <v>2793</v>
       </c>
@@ -33306,8 +33558,14 @@
       <c r="E682" s="4" t="s">
         <v>2796</v>
       </c>
-    </row>
-    <row r="683" spans="1:5">
+      <c r="F682" s="4" t="s">
+        <v>2796</v>
+      </c>
+      <c r="G682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7">
       <c r="A683" s="4" t="s">
         <v>2797</v>
       </c>
@@ -33323,8 +33581,14 @@
       <c r="E683" s="4" t="s">
         <v>2800</v>
       </c>
-    </row>
-    <row r="684" spans="1:5">
+      <c r="F683" s="4" t="s">
+        <v>3045</v>
+      </c>
+      <c r="G683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7">
       <c r="A684" s="4" t="s">
         <v>2801</v>
       </c>
@@ -33340,8 +33604,14 @@
       <c r="E684" s="4" t="s">
         <v>2804</v>
       </c>
-    </row>
-    <row r="685" spans="1:5">
+      <c r="F684" s="4" t="s">
+        <v>2804</v>
+      </c>
+      <c r="G684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7">
       <c r="A685" s="4" t="s">
         <v>2805</v>
       </c>
@@ -33357,8 +33627,14 @@
       <c r="E685" s="4" t="s">
         <v>2808</v>
       </c>
-    </row>
-    <row r="686" spans="1:5">
+      <c r="F685" s="4" t="s">
+        <v>3046</v>
+      </c>
+      <c r="G685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7">
       <c r="A686" s="3" t="s">
         <v>2809</v>
       </c>
@@ -33374,8 +33650,14 @@
       <c r="E686" s="4" t="s">
         <v>2812</v>
       </c>
-    </row>
-    <row r="687" spans="1:5">
+      <c r="F686" s="4" t="s">
+        <v>2812</v>
+      </c>
+      <c r="G686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7">
       <c r="A687" s="4" t="s">
         <v>2813</v>
       </c>
@@ -33391,8 +33673,14 @@
       <c r="E687" s="4" t="s">
         <v>2816</v>
       </c>
-    </row>
-    <row r="688" spans="1:5">
+      <c r="F687" s="4" t="s">
+        <v>3047</v>
+      </c>
+      <c r="G687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7">
       <c r="A688" s="4" t="s">
         <v>2817</v>
       </c>
@@ -33408,8 +33696,14 @@
       <c r="E688" s="4" t="s">
         <v>2820</v>
       </c>
-    </row>
-    <row r="689" spans="1:5">
+      <c r="F688" s="4" t="s">
+        <v>3048</v>
+      </c>
+      <c r="G688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7">
       <c r="A689" s="4" t="s">
         <v>2821</v>
       </c>
@@ -33425,8 +33719,14 @@
       <c r="E689" s="4" t="s">
         <v>2824</v>
       </c>
-    </row>
-    <row r="690" spans="1:5">
+      <c r="F689" s="4" t="s">
+        <v>3049</v>
+      </c>
+      <c r="G689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7">
       <c r="A690" s="4" t="s">
         <v>2825</v>
       </c>
@@ -33442,8 +33742,14 @@
       <c r="E690" s="4" t="s">
         <v>2828</v>
       </c>
-    </row>
-    <row r="691" spans="1:5">
+      <c r="F690" s="4" t="s">
+        <v>2828</v>
+      </c>
+      <c r="G690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7">
       <c r="A691" s="4" t="s">
         <v>2829</v>
       </c>
@@ -33459,8 +33765,14 @@
       <c r="E691" s="4" t="s">
         <v>2831</v>
       </c>
-    </row>
-    <row r="692" spans="1:5">
+      <c r="F691" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="G691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7">
       <c r="A692" s="4" t="s">
         <v>2832</v>
       </c>
@@ -33476,8 +33788,14 @@
       <c r="E692" s="4" t="s">
         <v>2835</v>
       </c>
-    </row>
-    <row r="693" spans="1:5">
+      <c r="F692" s="4" t="s">
+        <v>2835</v>
+      </c>
+      <c r="G692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7">
       <c r="A693" s="4" t="s">
         <v>2836</v>
       </c>
@@ -33493,8 +33811,14 @@
       <c r="E693" s="4" t="s">
         <v>2839</v>
       </c>
-    </row>
-    <row r="694" spans="1:5">
+      <c r="F693" s="4" t="s">
+        <v>2839</v>
+      </c>
+      <c r="G693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7">
       <c r="A694" s="4" t="s">
         <v>2840</v>
       </c>
@@ -33510,8 +33834,14 @@
       <c r="E694" s="4" t="s">
         <v>2843</v>
       </c>
-    </row>
-    <row r="695" spans="1:5">
+      <c r="F694" s="4" t="s">
+        <v>3050</v>
+      </c>
+      <c r="G694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7">
       <c r="A695" s="13" t="s">
         <v>2844</v>
       </c>
@@ -33527,8 +33857,14 @@
       <c r="E695" s="4" t="s">
         <v>2848</v>
       </c>
-    </row>
-    <row r="696" spans="1:5">
+      <c r="F695" s="4" t="s">
+        <v>2848</v>
+      </c>
+      <c r="G695">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7">
       <c r="A696" s="1" t="s">
         <v>2849</v>
       </c>
@@ -33544,8 +33880,14 @@
       <c r="E696" s="4" t="s">
         <v>2852</v>
       </c>
-    </row>
-    <row r="697" spans="1:5">
+      <c r="F696" s="4" t="s">
+        <v>2852</v>
+      </c>
+      <c r="G696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7">
       <c r="A697" s="3" t="s">
         <v>2853</v>
       </c>
@@ -33561,8 +33903,14 @@
       <c r="E697" s="4" t="s">
         <v>2856</v>
       </c>
-    </row>
-    <row r="698" spans="1:5">
+      <c r="F697" s="4" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7">
       <c r="A698" s="4" t="s">
         <v>2857</v>
       </c>
@@ -33578,8 +33926,14 @@
       <c r="E698" s="4" t="s">
         <v>2859</v>
       </c>
-    </row>
-    <row r="699" spans="1:5">
+      <c r="F698" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="G698">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7">
       <c r="A699" s="1" t="s">
         <v>2860</v>
       </c>
@@ -33595,8 +33949,14 @@
       <c r="E699" s="4" t="s">
         <v>2863</v>
       </c>
-    </row>
-    <row r="700" spans="1:5">
+      <c r="F699" s="4" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7">
       <c r="A700" s="1" t="s">
         <v>2864</v>
       </c>
@@ -33612,8 +33972,14 @@
       <c r="E700" s="4" t="s">
         <v>2867</v>
       </c>
-    </row>
-    <row r="701" spans="1:5">
+      <c r="F700" s="4" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7">
       <c r="A701" s="3" t="s">
         <v>2868</v>
       </c>
@@ -33629,8 +33995,14 @@
       <c r="E701" s="4" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="702" spans="1:5">
+      <c r="F701" s="4" t="s">
+        <v>3052</v>
+      </c>
+      <c r="G701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7">
       <c r="A702" s="4" t="s">
         <v>2872</v>
       </c>
@@ -33646,8 +34018,14 @@
       <c r="E702" s="4" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="703" spans="1:5">
+      <c r="F702" s="4" t="s">
+        <v>2875</v>
+      </c>
+      <c r="G702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7">
       <c r="A703" s="4" t="s">
         <v>2876</v>
       </c>
@@ -33663,8 +34041,14 @@
       <c r="E703" s="4" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="704" spans="1:5">
+      <c r="F703" s="4" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7">
       <c r="A704" s="3" t="s">
         <v>2880</v>
       </c>
@@ -33680,8 +34064,14 @@
       <c r="E704" s="4" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="705" spans="1:5">
+      <c r="F704" s="4" t="s">
+        <v>2883</v>
+      </c>
+      <c r="G704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7">
       <c r="A705" s="4" t="s">
         <v>2884</v>
       </c>
@@ -33697,8 +34087,14 @@
       <c r="E705" s="4" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="706" spans="1:5">
+      <c r="F705" s="4" t="s">
+        <v>2887</v>
+      </c>
+      <c r="G705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7">
       <c r="A706" s="4" t="s">
         <v>2888</v>
       </c>
@@ -33714,8 +34110,14 @@
       <c r="E706" s="4" t="s">
         <v>2891</v>
       </c>
-    </row>
-    <row r="707" spans="1:5">
+      <c r="F706" s="4" t="s">
+        <v>2891</v>
+      </c>
+      <c r="G706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7">
       <c r="A707" s="4" t="s">
         <v>2892</v>
       </c>
@@ -33731,8 +34133,14 @@
       <c r="E707" s="4" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="708" spans="1:5">
+      <c r="F707" s="4" t="s">
+        <v>2895</v>
+      </c>
+      <c r="G707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7">
       <c r="A708" s="4" t="s">
         <v>2896</v>
       </c>
@@ -33748,8 +34156,14 @@
       <c r="E708" s="4" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="709" spans="1:5">
+      <c r="F708" s="4" t="s">
+        <v>2899</v>
+      </c>
+      <c r="G708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7">
       <c r="A709" s="4" t="s">
         <v>2900</v>
       </c>
@@ -33765,8 +34179,14 @@
       <c r="E709" s="4" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="710" spans="1:5">
+      <c r="F709" s="4" t="s">
+        <v>3053</v>
+      </c>
+      <c r="G709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7">
       <c r="A710" s="4" t="s">
         <v>2903</v>
       </c>
@@ -33782,8 +34202,14 @@
       <c r="E710" s="4" t="s">
         <v>2906</v>
       </c>
-    </row>
-    <row r="711" spans="1:5">
+      <c r="F710" s="4" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7">
       <c r="A711" s="4" t="s">
         <v>2907</v>
       </c>
@@ -33799,8 +34225,14 @@
       <c r="E711" s="4" t="s">
         <v>2910</v>
       </c>
-    </row>
-    <row r="712" spans="1:5">
+      <c r="F711" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="G711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7">
       <c r="A712" s="3" t="s">
         <v>2911</v>
       </c>
@@ -33816,8 +34248,14 @@
       <c r="E712" s="4" t="s">
         <v>2914</v>
       </c>
-    </row>
-    <row r="713" spans="1:5">
+      <c r="F712" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="G712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7">
       <c r="A713" s="3" t="s">
         <v>2915</v>
       </c>
@@ -33833,8 +34271,14 @@
       <c r="E713" s="4" t="s">
         <v>2918</v>
       </c>
-    </row>
-    <row r="714" spans="1:5">
+      <c r="F713" s="4" t="s">
+        <v>2918</v>
+      </c>
+      <c r="G713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7">
       <c r="A714" s="4" t="s">
         <v>2919</v>
       </c>
@@ -33850,8 +34294,14 @@
       <c r="E714" s="4" t="s">
         <v>2922</v>
       </c>
-    </row>
-    <row r="715" spans="1:5">
+      <c r="F714" s="4" t="s">
+        <v>3056</v>
+      </c>
+      <c r="G714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7">
       <c r="A715" s="4" t="s">
         <v>2923</v>
       </c>
@@ -33867,8 +34317,14 @@
       <c r="E715" s="4" t="s">
         <v>2926</v>
       </c>
-    </row>
-    <row r="716" spans="1:5">
+      <c r="F715" s="4" t="s">
+        <v>3057</v>
+      </c>
+      <c r="G715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7">
       <c r="A716" s="4" t="s">
         <v>2927</v>
       </c>
@@ -33884,8 +34340,14 @@
       <c r="E716" s="4" t="s">
         <v>2930</v>
       </c>
-    </row>
-    <row r="717" spans="1:5">
+      <c r="F716" s="4" t="s">
+        <v>2930</v>
+      </c>
+      <c r="G716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7">
       <c r="A717" s="4" t="s">
         <v>2931</v>
       </c>
@@ -33901,8 +34363,14 @@
       <c r="E717" s="4" t="s">
         <v>2934</v>
       </c>
-    </row>
-    <row r="718" spans="1:5">
+      <c r="F717" s="4" t="s">
+        <v>2934</v>
+      </c>
+      <c r="G717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7">
       <c r="A718" s="4" t="s">
         <v>2935</v>
       </c>
@@ -33918,8 +34386,14 @@
       <c r="E718" s="4" t="s">
         <v>2938</v>
       </c>
-    </row>
-    <row r="719" spans="1:5">
+      <c r="F718" s="4" t="s">
+        <v>2938</v>
+      </c>
+      <c r="G718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7">
       <c r="A719" s="4" t="s">
         <v>2939</v>
       </c>
@@ -33935,8 +34409,14 @@
       <c r="E719" s="4" t="s">
         <v>2941</v>
       </c>
-    </row>
-    <row r="720" spans="1:5">
+      <c r="F719" s="4" t="s">
+        <v>3058</v>
+      </c>
+      <c r="G719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7">
       <c r="A720" s="4" t="s">
         <v>2942</v>
       </c>
@@ -33952,8 +34432,14 @@
       <c r="E720" s="4" t="s">
         <v>2945</v>
       </c>
-    </row>
-    <row r="721" spans="1:5">
+      <c r="F720" s="4" t="s">
+        <v>3059</v>
+      </c>
+      <c r="G720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7">
       <c r="A721" s="4" t="s">
         <v>2946</v>
       </c>
@@ -33969,8 +34455,14 @@
       <c r="E721" s="4" t="s">
         <v>2949</v>
       </c>
-    </row>
-    <row r="722" spans="1:5">
+      <c r="F721" s="4" t="s">
+        <v>2949</v>
+      </c>
+      <c r="G721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7">
       <c r="A722" s="4" t="s">
         <v>2950</v>
       </c>
@@ -33986,8 +34478,14 @@
       <c r="E722" s="4" t="s">
         <v>2953</v>
       </c>
-    </row>
-    <row r="723" spans="1:5">
+      <c r="F722" s="4" t="s">
+        <v>3060</v>
+      </c>
+      <c r="G722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7">
       <c r="A723" s="4" t="s">
         <v>2954</v>
       </c>
@@ -34003,8 +34501,14 @@
       <c r="E723" s="4" t="s">
         <v>2957</v>
       </c>
-    </row>
-    <row r="724" spans="1:5">
+      <c r="F723" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="G723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7">
       <c r="A724" s="4" t="s">
         <v>2958</v>
       </c>
@@ -34020,8 +34524,14 @@
       <c r="E724" s="4" t="s">
         <v>2961</v>
       </c>
-    </row>
-    <row r="725" spans="1:5">
+      <c r="F724" s="4" t="s">
+        <v>2961</v>
+      </c>
+      <c r="G724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7">
       <c r="A725" s="4" t="s">
         <v>2962</v>
       </c>
@@ -34037,8 +34547,14 @@
       <c r="E725" s="4" t="s">
         <v>2964</v>
       </c>
-    </row>
-    <row r="726" spans="1:5">
+      <c r="F725" s="4" t="s">
+        <v>3062</v>
+      </c>
+      <c r="G725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7">
       <c r="A726" s="4" t="s">
         <v>2965</v>
       </c>
@@ -34054,8 +34570,14 @@
       <c r="E726" s="4" t="s">
         <v>2968</v>
       </c>
-    </row>
-    <row r="727" spans="1:5">
+      <c r="F726" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7">
       <c r="A727" s="4" t="s">
         <v>2969</v>
       </c>
@@ -34071,8 +34593,14 @@
       <c r="E727" s="4" t="s">
         <v>2972</v>
       </c>
-    </row>
-    <row r="728" spans="1:5">
+      <c r="F727" s="4" t="s">
+        <v>2972</v>
+      </c>
+      <c r="G727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7">
       <c r="A728" s="4" t="s">
         <v>2973</v>
       </c>
@@ -34088,8 +34616,14 @@
       <c r="E728" s="4" t="s">
         <v>2976</v>
       </c>
-    </row>
-    <row r="729" spans="1:5">
+      <c r="F728" s="4" t="s">
+        <v>3064</v>
+      </c>
+      <c r="G728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7">
       <c r="A729" s="4" t="s">
         <v>2977</v>
       </c>
@@ -34105,8 +34639,14 @@
       <c r="E729" s="4" t="s">
         <v>2979</v>
       </c>
-    </row>
-    <row r="730" spans="1:5">
+      <c r="F729" s="4" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7">
       <c r="A730" s="3" t="s">
         <v>2980</v>
       </c>
@@ -34122,8 +34662,14 @@
       <c r="E730" s="4" t="s">
         <v>2983</v>
       </c>
-    </row>
-    <row r="731" spans="1:5">
+      <c r="F730" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="G730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7">
       <c r="A731" s="4" t="s">
         <v>2984</v>
       </c>
@@ -34139,8 +34685,14 @@
       <c r="E731" s="4" t="s">
         <v>2987</v>
       </c>
-    </row>
-    <row r="732" spans="1:5">
+      <c r="F731" s="4" t="s">
+        <v>2987</v>
+      </c>
+      <c r="G731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7">
       <c r="A732" s="4" t="s">
         <v>2988</v>
       </c>
@@ -34156,8 +34708,14 @@
       <c r="E732" s="4" t="s">
         <v>2991</v>
       </c>
-    </row>
-    <row r="733" spans="1:5">
+      <c r="F732" s="4" t="s">
+        <v>2991</v>
+      </c>
+      <c r="G732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7">
       <c r="A733" s="13" t="s">
         <v>2992</v>
       </c>
@@ -34173,8 +34731,14 @@
       <c r="E733" s="4" t="s">
         <v>2995</v>
       </c>
-    </row>
-    <row r="734" spans="1:5">
+      <c r="F733" s="4" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7">
       <c r="A734" s="4" t="s">
         <v>2996</v>
       </c>
@@ -34190,8 +34754,14 @@
       <c r="E734" s="4" t="s">
         <v>2999</v>
       </c>
-    </row>
-    <row r="735" spans="1:5">
+      <c r="F734" s="4" t="s">
+        <v>2999</v>
+      </c>
+      <c r="G734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7">
       <c r="A735" s="1" t="s">
         <v>3000</v>
       </c>
@@ -34207,8 +34777,14 @@
       <c r="E735" s="4" t="s">
         <v>3003</v>
       </c>
-    </row>
-    <row r="736" spans="1:5">
+      <c r="F735" s="4" t="s">
+        <v>3067</v>
+      </c>
+      <c r="G735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7">
       <c r="A736" s="4" t="s">
         <v>3004</v>
       </c>
@@ -34224,8 +34800,14 @@
       <c r="E736" s="4" t="s">
         <v>3007</v>
       </c>
-    </row>
-    <row r="737" spans="1:5">
+      <c r="F736" s="4" t="s">
+        <v>3068</v>
+      </c>
+      <c r="G736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7">
       <c r="A737" s="4" t="s">
         <v>3008</v>
       </c>
@@ -34241,8 +34823,14 @@
       <c r="E737" s="4" t="s">
         <v>3011</v>
       </c>
-    </row>
-    <row r="738" spans="1:5">
+      <c r="F737" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="G737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7">
       <c r="A738" s="4" t="s">
         <v>3012</v>
       </c>
@@ -34258,8 +34846,14 @@
       <c r="E738" s="4" t="s">
         <v>3015</v>
       </c>
-    </row>
-    <row r="739" spans="1:5">
+      <c r="F738" s="4" t="s">
+        <v>3015</v>
+      </c>
+      <c r="G738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7">
       <c r="A739" s="4" t="s">
         <v>3016</v>
       </c>
@@ -34275,8 +34869,14 @@
       <c r="E739" s="4" t="s">
         <v>3019</v>
       </c>
-    </row>
-    <row r="740" spans="1:5">
+      <c r="F739" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="G739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7">
       <c r="A740" s="4" t="s">
         <v>3020</v>
       </c>
@@ -34292,8 +34892,14 @@
       <c r="E740" s="4" t="s">
         <v>3023</v>
       </c>
-    </row>
-    <row r="741" spans="1:5">
+      <c r="F740" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="G740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7">
       <c r="A741" s="4" t="s">
         <v>3024</v>
       </c>
@@ -34309,8 +34915,14 @@
       <c r="E741" s="4" t="s">
         <v>3027</v>
       </c>
-    </row>
-    <row r="742" spans="1:5">
+      <c r="F741" s="4" t="s">
+        <v>3027</v>
+      </c>
+      <c r="G741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7">
       <c r="A742" s="4" t="s">
         <v>3028</v>
       </c>
@@ -34326,8 +34938,14 @@
       <c r="E742" s="4" t="s">
         <v>3031</v>
       </c>
-    </row>
-    <row r="743" spans="1:5">
+      <c r="F742" s="4" t="s">
+        <v>3069</v>
+      </c>
+      <c r="G742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7">
       <c r="A743" s="4" t="s">
         <v>3032</v>
       </c>
@@ -34342,6 +34960,12 @@
       </c>
       <c r="E743" s="4" t="s">
         <v>3035</v>
+      </c>
+      <c r="F743" s="4" t="s">
+        <v>3070</v>
+      </c>
+      <c r="G743">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
